--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r104_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r104_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -622,10 +634,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -669,28 +681,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -715,28 +727,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -853,10 +865,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -900,28 +912,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -946,28 +958,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1171,10 +1183,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1218,28 +1230,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1264,28 +1276,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1431,10 +1443,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1478,28 +1490,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1524,28 +1536,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1691,10 +1703,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1738,28 +1750,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1784,28 +1796,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1951,10 +1963,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1998,28 +2010,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2044,28 +2056,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2356,10 +2368,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2403,28 +2415,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2449,28 +2461,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2674,10 +2686,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2721,28 +2733,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2767,28 +2779,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3021,10 +3033,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3068,28 +3080,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3114,28 +3126,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3252,10 +3264,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3299,28 +3311,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3345,28 +3357,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3657,10 +3669,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3704,28 +3716,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3750,28 +3762,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4120,10 +4132,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4167,28 +4179,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4213,28 +4225,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4525,10 +4537,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4572,28 +4584,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4618,28 +4630,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4727,10 +4739,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4774,28 +4786,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4820,28 +4832,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4958,10 +4970,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5005,28 +5017,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5051,28 +5063,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5189,10 +5201,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5236,28 +5248,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5282,28 +5294,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5362,10 +5374,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5409,28 +5421,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5455,28 +5467,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5564,10 +5576,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5611,28 +5623,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5657,28 +5669,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5737,10 +5749,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5784,28 +5796,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5830,28 +5842,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5910,10 +5922,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5957,28 +5969,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6003,28 +6015,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6083,10 +6095,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
